--- a/Code/Results/Cases/Case_3_136/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_136/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5836043668411151</v>
+        <v>0.1803039715586294</v>
       </c>
       <c r="C2">
-        <v>0.08239964225265339</v>
+        <v>0.04861204301444388</v>
       </c>
       <c r="D2">
-        <v>0.0763799244684904</v>
+        <v>0.02683154439476709</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3153674679895033</v>
+        <v>0.4712653494825716</v>
       </c>
       <c r="G2">
-        <v>0.2108586916400625</v>
+        <v>0.3148194623067724</v>
       </c>
       <c r="H2">
-        <v>0.2024481060195171</v>
+        <v>0.4904941423470817</v>
       </c>
       <c r="I2">
-        <v>0.1764931251452708</v>
+        <v>0.3830886459092078</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6052835940684815</v>
+        <v>0.1899372257878866</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.794166055643458</v>
+        <v>0.8901613683944163</v>
       </c>
       <c r="N2">
-        <v>0.5477253117291534</v>
+        <v>1.188589985725999</v>
       </c>
       <c r="O2">
-        <v>0.8206277010348941</v>
+        <v>1.540774767514691</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5125666685333243</v>
+        <v>0.1572978465636368</v>
       </c>
       <c r="C3">
-        <v>0.0763834990077612</v>
+        <v>0.04643923291091312</v>
       </c>
       <c r="D3">
-        <v>0.06731247894908421</v>
+        <v>0.02382316355171099</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2969068815422276</v>
+        <v>0.4700020403240401</v>
       </c>
       <c r="G3">
-        <v>0.2008392471910057</v>
+        <v>0.3149087262283672</v>
       </c>
       <c r="H3">
-        <v>0.202465409620352</v>
+        <v>0.4934004564138093</v>
       </c>
       <c r="I3">
-        <v>0.1777634010809912</v>
+        <v>0.3862387656581241</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5357955518304891</v>
+        <v>0.166854195485115</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.381483665100603</v>
+        <v>0.792407016919725</v>
       </c>
       <c r="N3">
-        <v>0.5834848224155538</v>
+        <v>1.202878906655356</v>
       </c>
       <c r="O3">
-        <v>0.7991280420506826</v>
+        <v>1.546843590894994</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4687613276098688</v>
+        <v>0.143119466498149</v>
       </c>
       <c r="C4">
-        <v>0.07265507374798119</v>
+        <v>0.04509321617330642</v>
       </c>
       <c r="D4">
-        <v>0.06172342276824594</v>
+        <v>0.02196411058593384</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2861559640976168</v>
+        <v>0.469510832096276</v>
       </c>
       <c r="G4">
-        <v>0.1951886941307066</v>
+        <v>0.3151799816537491</v>
       </c>
       <c r="H4">
-        <v>0.2027967666313231</v>
+        <v>0.4953793536497102</v>
       </c>
       <c r="I4">
-        <v>0.178937053224427</v>
+        <v>0.3883732312516415</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.49289551938611</v>
+        <v>0.1526028471889163</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.136384552400713</v>
+        <v>0.7328981293851626</v>
       </c>
       <c r="N4">
-        <v>0.6062690489496174</v>
+        <v>1.212082274134679</v>
       </c>
       <c r="O4">
-        <v>0.7876549155959651</v>
+        <v>1.551428629058989</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4508636320200168</v>
+        <v>0.1373289744420134</v>
       </c>
       <c r="C5">
-        <v>0.07112768572304162</v>
+        <v>0.04454176711711</v>
       </c>
       <c r="D5">
-        <v>0.05944030921337173</v>
+        <v>0.0212035890839033</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2819135496123835</v>
+        <v>0.4693822208720633</v>
       </c>
       <c r="G5">
-        <v>0.1930047041639256</v>
+        <v>0.3153448979572673</v>
       </c>
       <c r="H5">
-        <v>0.2030096232486684</v>
+        <v>0.4962347002729857</v>
       </c>
       <c r="I5">
-        <v>0.1795101029939197</v>
+        <v>0.3892933893658324</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4753561148432368</v>
+        <v>0.1467761439531898</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.038239297777224</v>
+        <v>0.7087709747411424</v>
       </c>
       <c r="N5">
-        <v>0.6157580752721068</v>
+        <v>1.215940798823877</v>
       </c>
       <c r="O5">
-        <v>0.7833922772888258</v>
+        <v>1.553512992369534</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4478889281146508</v>
+        <v>0.1363667167054814</v>
       </c>
       <c r="C6">
-        <v>0.07087359666601856</v>
+        <v>0.04445002374188789</v>
       </c>
       <c r="D6">
-        <v>0.05906086301538238</v>
+        <v>0.0210771287904592</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2812172459356503</v>
+        <v>0.4693651879663534</v>
       </c>
       <c r="G6">
-        <v>0.1926490126014784</v>
+        <v>0.3153755649992647</v>
       </c>
       <c r="H6">
-        <v>0.2030495887056532</v>
+        <v>0.4963796864822285</v>
       </c>
       <c r="I6">
-        <v>0.1796108630979738</v>
+        <v>0.3894492212405076</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.472440289585947</v>
+        <v>0.1458074821937743</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.02203778722108</v>
+        <v>0.7047719548222489</v>
       </c>
       <c r="N6">
-        <v>0.6173459461463158</v>
+        <v>1.216588030779114</v>
       </c>
       <c r="O6">
-        <v>0.7827087894598037</v>
+        <v>1.553872140030052</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4685201413525135</v>
+        <v>0.1430414245760545</v>
       </c>
       <c r="C7">
-        <v>0.07263450656032688</v>
+        <v>0.04508579095237053</v>
       </c>
       <c r="D7">
-        <v>0.06169265441951666</v>
+        <v>0.02195386577597702</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2860981983681938</v>
+        <v>0.4695088078201479</v>
       </c>
       <c r="G7">
-        <v>0.195158769115892</v>
+        <v>0.3151819856674365</v>
       </c>
       <c r="H7">
-        <v>0.202799325796974</v>
+        <v>0.4953906909808055</v>
       </c>
       <c r="I7">
-        <v>0.178944403219834</v>
+        <v>0.3883854369992115</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4926592069854934</v>
+        <v>0.1525243431346865</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.135054335542236</v>
+        <v>0.7325722507725629</v>
       </c>
       <c r="N7">
-        <v>0.6063961992671221</v>
+        <v>1.212133873991371</v>
       </c>
       <c r="O7">
-        <v>0.7875957846461574</v>
+        <v>1.551455865277063</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5591499788821181</v>
+        <v>0.1723826672283337</v>
       </c>
       <c r="C8">
-        <v>0.08033285386012068</v>
+        <v>0.04786536187861401</v>
       </c>
       <c r="D8">
-        <v>0.07325790092688322</v>
+        <v>0.02579675193602071</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.308875974304506</v>
+        <v>0.4707707340662282</v>
       </c>
       <c r="G8">
-        <v>0.2072952857007166</v>
+        <v>0.3148052859046757</v>
       </c>
       <c r="H8">
-        <v>0.2023857550815364</v>
+        <v>0.4914559162597811</v>
       </c>
       <c r="I8">
-        <v>0.1768467824005278</v>
+        <v>0.3841332295565962</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.581373743645301</v>
+        <v>0.181994747786888</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.649926040662066</v>
+        <v>0.8563457637780942</v>
       </c>
       <c r="N8">
-        <v>0.5598810550205817</v>
+        <v>1.193427562215492</v>
       </c>
       <c r="O8">
-        <v>0.8128425232822423</v>
+        <v>1.542689049208533</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7353492198511162</v>
+        <v>0.2294836828769178</v>
       </c>
       <c r="C9">
-        <v>0.09512091864550598</v>
+        <v>0.05321938129580417</v>
       </c>
       <c r="D9">
-        <v>0.09576975662361065</v>
+        <v>0.0332364369936613</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3585755469293233</v>
+        <v>0.4755021080044131</v>
       </c>
       <c r="G9">
-        <v>0.2354373518843573</v>
+        <v>0.3157867250935666</v>
       </c>
       <c r="H9">
-        <v>0.2042554924414759</v>
+        <v>0.485280553293741</v>
       </c>
       <c r="I9">
-        <v>0.1760617757110836</v>
+        <v>0.3773846078059186</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7533988835282344</v>
+        <v>0.2391447538212645</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.744301733795169</v>
+        <v>1.103406273525096</v>
       </c>
       <c r="N9">
-        <v>0.4754041505052653</v>
+        <v>1.160156340792336</v>
       </c>
       <c r="O9">
-        <v>0.8771177633057903</v>
+        <v>1.532313407733625</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8637975054672324</v>
+        <v>0.2711458738884289</v>
       </c>
       <c r="C10">
-        <v>0.1057371072038222</v>
+        <v>0.05709129498663401</v>
       </c>
       <c r="D10">
-        <v>0.112210545521819</v>
+        <v>0.03864174833454115</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3987669849652065</v>
+        <v>0.4803547481183941</v>
       </c>
       <c r="G10">
-        <v>0.259318474214453</v>
+        <v>0.3175609297515152</v>
       </c>
       <c r="H10">
-        <v>0.2074666863308323</v>
+        <v>0.4816804984546508</v>
       </c>
       <c r="I10">
-        <v>0.1778240392473016</v>
+        <v>0.373396952979359</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8784385659053839</v>
+        <v>0.2807183062101331</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.632951176168604</v>
+        <v>1.287968666403913</v>
       </c>
       <c r="N10">
-        <v>0.4176722783300995</v>
+        <v>1.137791935964764</v>
       </c>
       <c r="O10">
-        <v>0.9349540832119629</v>
+        <v>1.528850765033326</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9219803180739632</v>
+        <v>0.290031366616347</v>
       </c>
       <c r="C11">
-        <v>0.1104937892158233</v>
+        <v>0.0588387721519581</v>
       </c>
       <c r="D11">
-        <v>0.1196677495812821</v>
+        <v>0.0410872039012844</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4180026511026256</v>
+        <v>0.4828614739843289</v>
       </c>
       <c r="G11">
-        <v>0.2710201528060097</v>
+        <v>0.3185977572337748</v>
       </c>
       <c r="H11">
-        <v>0.2093760683810615</v>
+        <v>0.4802457362471202</v>
       </c>
       <c r="I11">
-        <v>0.1792110257720694</v>
+        <v>0.3717939108569084</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9349713038123468</v>
+        <v>0.2995363840598202</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.065583743258983</v>
+        <v>1.372682297476132</v>
       </c>
       <c r="N11">
-        <v>0.3923925467739462</v>
+        <v>1.12806945843649</v>
       </c>
       <c r="O11">
-        <v>0.9639745888318743</v>
+        <v>1.528180157315589</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9439718224217586</v>
+        <v>0.297172711300874</v>
       </c>
       <c r="C12">
-        <v>0.1122823592977085</v>
+        <v>0.05949844594790932</v>
       </c>
       <c r="D12">
-        <v>0.1224881956705843</v>
+        <v>0.04201125543572459</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4254381953765431</v>
+        <v>0.4838537306720454</v>
       </c>
       <c r="G12">
-        <v>0.2755854053822446</v>
+        <v>0.3190234819181583</v>
       </c>
       <c r="H12">
-        <v>0.2101681755066025</v>
+        <v>0.4797315707602223</v>
       </c>
       <c r="I12">
-        <v>0.179827757112232</v>
+        <v>0.3712172417056756</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9563209292178101</v>
+        <v>0.3066483033856571</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.234617139786749</v>
+        <v>1.404876915242482</v>
       </c>
       <c r="N12">
-        <v>0.3829639328463621</v>
+        <v>1.124452730294333</v>
       </c>
       <c r="O12">
-        <v>0.9753921952130895</v>
+        <v>1.528056364599919</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9392374917563302</v>
+        <v>0.2956351568346918</v>
       </c>
       <c r="C13">
-        <v>0.1118977654697062</v>
+        <v>0.05935646591478871</v>
       </c>
       <c r="D13">
-        <v>0.1218809217798196</v>
+        <v>0.04181233377290994</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4238298322648504</v>
+        <v>0.483638117632502</v>
       </c>
       <c r="G13">
-        <v>0.2745959960884292</v>
+        <v>0.3189303212899262</v>
       </c>
       <c r="H13">
-        <v>0.2099944319446081</v>
+        <v>0.4798410096451562</v>
       </c>
       <c r="I13">
-        <v>0.179690736187478</v>
+        <v>0.371340086581462</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9517256470394386</v>
+        <v>0.305117259525332</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.197959933237399</v>
+        <v>1.397937985645257</v>
       </c>
       <c r="N13">
-        <v>0.3849881017096219</v>
+        <v>1.125228766839308</v>
       </c>
       <c r="O13">
-        <v>0.9729134997745064</v>
+        <v>1.528077235808865</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9237904330958031</v>
+        <v>0.2906190966547513</v>
       </c>
       <c r="C14">
-        <v>0.1106412052572381</v>
+        <v>0.05889308551269323</v>
       </c>
       <c r="D14">
-        <v>0.1198998606268589</v>
+        <v>0.04116326636791712</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4186112534199466</v>
+        <v>0.4829422455650416</v>
       </c>
       <c r="G14">
-        <v>0.2713929670115789</v>
+        <v>0.3186321180999983</v>
       </c>
       <c r="H14">
-        <v>0.2094398236252673</v>
+        <v>0.4802028515593122</v>
       </c>
       <c r="I14">
-        <v>0.17925988529338</v>
+        <v>0.3717458591320799</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9367289704782706</v>
+        <v>0.3001217713595281</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.079378336694262</v>
+        <v>1.375328615655434</v>
       </c>
       <c r="N14">
-        <v>0.391613944502553</v>
+        <v>1.127770605605974</v>
       </c>
       <c r="O14">
-        <v>0.964905102838145</v>
+        <v>1.528167363936689</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9143231238965654</v>
+        <v>0.2875452721317231</v>
       </c>
       <c r="C15">
-        <v>0.1098697969203357</v>
+        <v>0.05860898178228524</v>
       </c>
       <c r="D15">
-        <v>0.1186859439762173</v>
+        <v>0.04076543310465297</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4154349041337539</v>
+        <v>0.4825216050551191</v>
       </c>
       <c r="G15">
-        <v>0.2694489162440092</v>
+        <v>0.3184537726529442</v>
       </c>
       <c r="H15">
-        <v>0.209109247286321</v>
+        <v>0.4804282851442423</v>
       </c>
       <c r="I15">
-        <v>0.1790081274610777</v>
+        <v>0.371998362315928</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9275352227991789</v>
+        <v>0.2970600402807406</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.007460221395533</v>
+        <v>1.361494957307272</v>
       </c>
       <c r="N15">
-        <v>0.395691322813585</v>
+        <v>1.129336017802938</v>
       </c>
       <c r="O15">
-        <v>0.9600567149845034</v>
+        <v>1.52823952191487</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8599897074783769</v>
+        <v>0.2699102687499249</v>
       </c>
       <c r="C16">
-        <v>0.1054246077929406</v>
+        <v>0.05697680868217958</v>
       </c>
       <c r="D16">
-        <v>0.111722739417516</v>
+        <v>0.03848165670878245</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3975302472069586</v>
+        <v>0.4801969477334396</v>
       </c>
       <c r="G16">
-        <v>0.2585717232449838</v>
+        <v>0.3174977990307042</v>
       </c>
       <c r="H16">
-        <v>0.2073513103346443</v>
+        <v>0.4817783440862584</v>
       </c>
       <c r="I16">
-        <v>0.1777457819166912</v>
+        <v>0.3735059633776849</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8747363841039544</v>
+        <v>0.2794865615437061</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.60533795510942</v>
+        <v>1.282448206668079</v>
       </c>
       <c r="N16">
-        <v>0.4193444182865869</v>
+        <v>1.138436408913677</v>
       </c>
       <c r="O16">
-        <v>0.9331152387180595</v>
+        <v>1.528912799512995</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8265910089466502</v>
+        <v>0.2590742393745415</v>
       </c>
       <c r="C17">
-        <v>0.1026776146765087</v>
+        <v>0.0559719249505406</v>
       </c>
       <c r="D17">
-        <v>0.1074452960686187</v>
+        <v>0.03707715006945023</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3867999664605293</v>
+        <v>0.4788474760391424</v>
       </c>
       <c r="G17">
-        <v>0.2521226451947385</v>
+        <v>0.3169702267142753</v>
       </c>
       <c r="H17">
-        <v>0.2063908773330994</v>
+        <v>0.4826585115676494</v>
       </c>
       <c r="I17">
-        <v>0.1771262393159212</v>
+        <v>0.374484882917276</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8422518772361087</v>
+        <v>0.2686813358698998</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.36662669440588</v>
+        <v>1.234153813242301</v>
       </c>
       <c r="N17">
-        <v>0.4341089232807893</v>
+        <v>1.144134824321421</v>
       </c>
       <c r="O17">
-        <v>0.9173075628850853</v>
+        <v>1.5295575685915</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8073579400587789</v>
+        <v>0.2528353839391002</v>
       </c>
       <c r="C18">
-        <v>0.1010909406350891</v>
+        <v>0.05539264009779288</v>
       </c>
       <c r="D18">
-        <v>0.1049829990889464</v>
+        <v>0.03626805258093668</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.380716871208655</v>
+        <v>0.4780994620358499</v>
       </c>
       <c r="G18">
-        <v>0.2484912760181146</v>
+        <v>0.3166884007145256</v>
       </c>
       <c r="H18">
-        <v>0.2058803886153129</v>
+        <v>0.4831838623835978</v>
       </c>
       <c r="I18">
-        <v>0.1768245015299286</v>
+        <v>0.3750677863638181</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8235354590011355</v>
+        <v>0.2624576478785059</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.231915576012028</v>
+        <v>1.206446828938908</v>
       </c>
       <c r="N18">
-        <v>0.4426934451672384</v>
+        <v>1.14745486644809</v>
       </c>
       <c r="O18">
-        <v>0.9084679712517669</v>
+        <v>1.530013560132346</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8008421285282736</v>
+        <v>0.2507219572191559</v>
       </c>
       <c r="C19">
-        <v>0.1005526315954484</v>
+        <v>0.05519628243067132</v>
       </c>
       <c r="D19">
-        <v>0.1041489662947441</v>
+        <v>0.03599389094453898</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3786720593471244</v>
+        <v>0.4778510354299499</v>
       </c>
       <c r="G19">
-        <v>0.24727476437603</v>
+        <v>0.3165966904773754</v>
       </c>
       <c r="H19">
-        <v>0.2057146149995859</v>
+        <v>0.4833650188648306</v>
       </c>
       <c r="I19">
-        <v>0.1767315075927414</v>
+        <v>0.3752685565665423</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8171930746051856</v>
+        <v>0.2603489186491998</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.186719924163867</v>
+        <v>1.19707765396052</v>
       </c>
       <c r="N19">
-        <v>0.4456157765369406</v>
+        <v>1.148586266531737</v>
       </c>
       <c r="O19">
-        <v>0.9055173234201561</v>
+        <v>1.53018257114293</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8301487717827456</v>
+        <v>0.2602284049946491</v>
       </c>
       <c r="C20">
-        <v>0.1029707419394441</v>
+        <v>0.05607903177551066</v>
       </c>
       <c r="D20">
-        <v>0.1079008483843324</v>
+        <v>0.0372267932563517</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.3879329464528496</v>
+        <v>0.4789882146008679</v>
       </c>
       <c r="G20">
-        <v>0.2528009985859825</v>
+        <v>0.3170241496649737</v>
       </c>
       <c r="H20">
-        <v>0.2064887461534255</v>
+        <v>0.4825628395098605</v>
       </c>
       <c r="I20">
-        <v>0.1771864887501096</v>
+        <v>0.374378620132525</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8457132893570076</v>
+        <v>0.2698324863079904</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.391762749968507</v>
+        <v>1.239287470721706</v>
       </c>
       <c r="N20">
-        <v>0.4325276322558911</v>
+        <v>1.143523822805975</v>
       </c>
       <c r="O20">
-        <v>0.9189639147305257</v>
+        <v>1.529480119874563</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9283287756651646</v>
+        <v>0.292092715979237</v>
       </c>
       <c r="C21">
-        <v>0.1110106527077477</v>
+        <v>0.0590292479199519</v>
       </c>
       <c r="D21">
-        <v>0.1204818428830663</v>
+        <v>0.04135396763558674</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.420139842198509</v>
+        <v>0.4831454727975952</v>
       </c>
       <c r="G21">
-        <v>0.2723300175214405</v>
+        <v>0.3187188087429647</v>
       </c>
       <c r="H21">
-        <v>0.2096008125555286</v>
+        <v>0.4800957790072573</v>
       </c>
       <c r="I21">
-        <v>0.1793838899952718</v>
+        <v>0.3716258494591393</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9411355122927318</v>
+        <v>0.301589453951749</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.114056827828776</v>
+        <v>1.381966348652554</v>
       </c>
       <c r="N21">
-        <v>0.3896638401442791</v>
+        <v>1.127022242206309</v>
       </c>
       <c r="O21">
-        <v>0.9672454112906763</v>
+        <v>1.528137358222722</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9922515758696875</v>
+        <v>0.3128582753230376</v>
       </c>
       <c r="C22">
-        <v>0.1161897147180326</v>
+        <v>0.0609453606960102</v>
       </c>
       <c r="D22">
-        <v>0.1286839341739636</v>
+        <v>0.0440396928296849</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4420796965599934</v>
+        <v>0.4861131924985784</v>
       </c>
       <c r="G22">
-        <v>0.2858826990483436</v>
+        <v>0.3200193325426568</v>
       </c>
       <c r="H22">
-        <v>0.2120397487407928</v>
+        <v>0.478653293579157</v>
       </c>
       <c r="I22">
-        <v>0.1813575261330129</v>
+        <v>0.3700037783771393</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.003154856505574</v>
+        <v>0.3222621440703222</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.617231905310717</v>
+        <v>1.475891181505602</v>
       </c>
       <c r="N22">
-        <v>0.3624912676094421</v>
+        <v>1.116616199574963</v>
       </c>
       <c r="O22">
-        <v>1.001317628698956</v>
+        <v>1.528018446679596</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9581593945289342</v>
+        <v>0.3017809478189974</v>
       </c>
       <c r="C23">
-        <v>0.1134333812104558</v>
+        <v>0.05992381614578335</v>
       </c>
       <c r="D23">
-        <v>0.1243083356391566</v>
+        <v>0.04260735260389481</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4302831613839331</v>
+        <v>0.484506329777922</v>
       </c>
       <c r="G23">
-        <v>0.2785721323600256</v>
+        <v>0.319307540489099</v>
       </c>
       <c r="H23">
-        <v>0.2106993560131158</v>
+        <v>0.4794076415203889</v>
       </c>
       <c r="I23">
-        <v>0.1802522987824027</v>
+        <v>0.3708532998893972</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9700889286661436</v>
+        <v>0.3112364613189698</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.345370181061526</v>
+        <v>1.425697592879885</v>
       </c>
       <c r="N23">
-        <v>0.3769161297304087</v>
+        <v>1.122135422350219</v>
       </c>
       <c r="O23">
-        <v>0.9828882087704187</v>
+        <v>1.528012468994802</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8285404056142056</v>
+        <v>0.2597066349505894</v>
       </c>
       <c r="C24">
-        <v>0.1028382419660971</v>
+        <v>0.0560306136466977</v>
       </c>
       <c r="D24">
-        <v>0.1076949029361032</v>
+        <v>0.03715914463799663</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3874204597495421</v>
+        <v>0.4789245000576017</v>
       </c>
       <c r="G24">
-        <v>0.2524940783858725</v>
+        <v>0.3169997041911969</v>
       </c>
       <c r="H24">
-        <v>0.206444370184137</v>
+        <v>0.4826060326333916</v>
       </c>
       <c r="I24">
-        <v>0.1771590809380186</v>
+        <v>0.3744265989031028</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8441485109666758</v>
+        <v>0.2693120873449288</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.380390948004589</v>
+        <v>1.236966363700688</v>
       </c>
       <c r="N24">
-        <v>0.4332422344920941</v>
+        <v>1.143799919711407</v>
       </c>
       <c r="O24">
-        <v>0.9182143070248685</v>
+        <v>1.52951486873836</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6878512823584231</v>
+        <v>0.2140855643677071</v>
       </c>
       <c r="C25">
-        <v>0.09115877444212828</v>
+        <v>0.05178161236108281</v>
       </c>
       <c r="D25">
-        <v>0.089697072487958</v>
+        <v>0.03123430781828063</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3445322661360279</v>
+        <v>0.4739804703693977</v>
       </c>
       <c r="G25">
-        <v>0.2273050423809906</v>
+        <v>0.3153366021099373</v>
       </c>
       <c r="H25">
-        <v>0.2034426514314944</v>
+        <v>0.4867864449848298</v>
       </c>
       <c r="I25">
-        <v>0.175887514242266</v>
+        <v>0.3790399427761209</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7070829552767322</v>
+        <v>0.2237552618046124</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.43618936482261</v>
+        <v>1.036064238498369</v>
       </c>
       <c r="N25">
-        <v>0.4975122509819481</v>
+        <v>1.168791839192783</v>
       </c>
       <c r="O25">
-        <v>0.8579915185729448</v>
+        <v>1.53439006507476</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_136/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_136/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1803039715586294</v>
+        <v>0.5836043668410298</v>
       </c>
       <c r="C2">
-        <v>0.04861204301444388</v>
+        <v>0.08239964225242602</v>
       </c>
       <c r="D2">
-        <v>0.02683154439476709</v>
+        <v>0.07637992446860409</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4712653494825716</v>
+        <v>0.3153674679895033</v>
       </c>
       <c r="G2">
-        <v>0.3148194623067724</v>
+        <v>0.2108586916400625</v>
       </c>
       <c r="H2">
-        <v>0.4904941423470817</v>
+        <v>0.2024481060196166</v>
       </c>
       <c r="I2">
-        <v>0.3830886459092078</v>
+        <v>0.1764931251452708</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1899372257878866</v>
+        <v>0.6052835940683536</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8901613683944163</v>
+        <v>2.794166055643458</v>
       </c>
       <c r="N2">
-        <v>1.188589985725999</v>
+        <v>0.5477253117292005</v>
       </c>
       <c r="O2">
-        <v>1.540774767514691</v>
+        <v>0.8206277010348799</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1572978465636368</v>
+        <v>0.5125666685333385</v>
       </c>
       <c r="C3">
-        <v>0.04643923291091312</v>
+        <v>0.07638349900758357</v>
       </c>
       <c r="D3">
-        <v>0.02382316355171099</v>
+        <v>0.06731247894898473</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4700020403240401</v>
+        <v>0.2969068815422418</v>
       </c>
       <c r="G3">
-        <v>0.3149087262283672</v>
+        <v>0.2008392471909985</v>
       </c>
       <c r="H3">
-        <v>0.4934004564138093</v>
+        <v>0.202465409620352</v>
       </c>
       <c r="I3">
-        <v>0.3862387656581241</v>
+        <v>0.1777634010809734</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.166854195485115</v>
+        <v>0.5357955518304323</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.792407016919725</v>
+        <v>2.381483665100575</v>
       </c>
       <c r="N3">
-        <v>1.202878906655356</v>
+        <v>0.5834848224155542</v>
       </c>
       <c r="O3">
-        <v>1.546843590894994</v>
+        <v>0.7991280420507252</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.143119466498149</v>
+        <v>0.4687613276098546</v>
       </c>
       <c r="C4">
-        <v>0.04509321617330642</v>
+        <v>0.07265507374798119</v>
       </c>
       <c r="D4">
-        <v>0.02196411058593384</v>
+        <v>0.06172342276808962</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.469510832096276</v>
+        <v>0.2861559640976168</v>
       </c>
       <c r="G4">
-        <v>0.3151799816537491</v>
+        <v>0.1951886941306569</v>
       </c>
       <c r="H4">
-        <v>0.4953793536497102</v>
+        <v>0.2027967666312094</v>
       </c>
       <c r="I4">
-        <v>0.3883732312516415</v>
+        <v>0.1789370532244305</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1526028471889163</v>
+        <v>0.4928955193862379</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7328981293851626</v>
+        <v>2.136384552400742</v>
       </c>
       <c r="N4">
-        <v>1.212082274134679</v>
+        <v>0.6062690489496165</v>
       </c>
       <c r="O4">
-        <v>1.551428629058989</v>
+        <v>0.7876549155959935</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1373289744420134</v>
+        <v>0.450863632020031</v>
       </c>
       <c r="C5">
-        <v>0.04454176711711</v>
+        <v>0.07112768572257266</v>
       </c>
       <c r="D5">
-        <v>0.0212035890839033</v>
+        <v>0.05944030921321541</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4693822208720633</v>
+        <v>0.281913549612355</v>
       </c>
       <c r="G5">
-        <v>0.3153448979572673</v>
+        <v>0.1930047041639753</v>
       </c>
       <c r="H5">
-        <v>0.4962347002729857</v>
+        <v>0.2030096232486684</v>
       </c>
       <c r="I5">
-        <v>0.3892933893658324</v>
+        <v>0.1795101029939161</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1467761439531898</v>
+        <v>0.4753561148432226</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7087709747411424</v>
+        <v>2.03823929777721</v>
       </c>
       <c r="N5">
-        <v>1.215940798823877</v>
+        <v>0.6157580752721077</v>
       </c>
       <c r="O5">
-        <v>1.553512992369534</v>
+        <v>0.78339227728884</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1363667167054814</v>
+        <v>0.4478889281146223</v>
       </c>
       <c r="C6">
-        <v>0.04445002374188789</v>
+        <v>0.07087359666606119</v>
       </c>
       <c r="D6">
-        <v>0.0210771287904592</v>
+        <v>0.0590608630154108</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4693651879663534</v>
+        <v>0.2812172459356503</v>
       </c>
       <c r="G6">
-        <v>0.3153755649992647</v>
+        <v>0.1926490126014713</v>
       </c>
       <c r="H6">
-        <v>0.4963796864822285</v>
+        <v>0.2030495887057739</v>
       </c>
       <c r="I6">
-        <v>0.3894492212405076</v>
+        <v>0.1796108630979703</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1458074821937743</v>
+        <v>0.4724402895859754</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7047719548222489</v>
+        <v>2.022037787221095</v>
       </c>
       <c r="N6">
-        <v>1.216588030779114</v>
+        <v>0.6173459461463096</v>
       </c>
       <c r="O6">
-        <v>1.553872140030052</v>
+        <v>0.7827087894598179</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1430414245760545</v>
+        <v>0.4685201413526556</v>
       </c>
       <c r="C7">
-        <v>0.04508579095237053</v>
+        <v>0.07263450656032688</v>
       </c>
       <c r="D7">
-        <v>0.02195386577597702</v>
+        <v>0.06169265441977956</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4695088078201479</v>
+        <v>0.2860981983682365</v>
       </c>
       <c r="G7">
-        <v>0.3151819856674365</v>
+        <v>0.1951587691158707</v>
       </c>
       <c r="H7">
-        <v>0.4953906909808055</v>
+        <v>0.2027993257970806</v>
       </c>
       <c r="I7">
-        <v>0.3883854369992115</v>
+        <v>0.1789444032198269</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1525243431346865</v>
+        <v>0.4926592069855076</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7325722507725629</v>
+        <v>2.135054335542236</v>
       </c>
       <c r="N7">
-        <v>1.212133873991371</v>
+        <v>0.6063961992671105</v>
       </c>
       <c r="O7">
-        <v>1.551455865277063</v>
+        <v>0.7875957846461432</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1723826672283337</v>
+        <v>0.5591499788820613</v>
       </c>
       <c r="C8">
-        <v>0.04786536187861401</v>
+        <v>0.08033285386006384</v>
       </c>
       <c r="D8">
-        <v>0.02579675193602071</v>
+        <v>0.07325790092689743</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4707707340662282</v>
+        <v>0.3088759743044918</v>
       </c>
       <c r="G8">
-        <v>0.3148052859046757</v>
+        <v>0.2072952857006527</v>
       </c>
       <c r="H8">
-        <v>0.4914559162597811</v>
+        <v>0.2023857550814228</v>
       </c>
       <c r="I8">
-        <v>0.3841332295565962</v>
+        <v>0.1768467824005135</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.181994747786888</v>
+        <v>0.5813737436451731</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8563457637780942</v>
+        <v>2.649926040662066</v>
       </c>
       <c r="N8">
-        <v>1.193427562215492</v>
+        <v>0.5598810550206283</v>
       </c>
       <c r="O8">
-        <v>1.542689049208533</v>
+        <v>0.8128425232822281</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2294836828769178</v>
+        <v>0.7353492198511731</v>
       </c>
       <c r="C9">
-        <v>0.05321938129580417</v>
+        <v>0.09512091864548466</v>
       </c>
       <c r="D9">
-        <v>0.0332364369936613</v>
+        <v>0.09576975662348275</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4755021080044131</v>
+        <v>0.358575546929309</v>
       </c>
       <c r="G9">
-        <v>0.3157867250935666</v>
+        <v>0.2354373518843715</v>
       </c>
       <c r="H9">
-        <v>0.485280553293741</v>
+        <v>0.204255492441483</v>
       </c>
       <c r="I9">
-        <v>0.3773846078059186</v>
+        <v>0.1760617757110836</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2391447538212645</v>
+        <v>0.7533988835283765</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.103406273525096</v>
+        <v>3.744301733795197</v>
       </c>
       <c r="N9">
-        <v>1.160156340792336</v>
+        <v>0.4754041505052728</v>
       </c>
       <c r="O9">
-        <v>1.532313407733625</v>
+        <v>0.8771177633058329</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2711458738884289</v>
+        <v>0.863797505467204</v>
       </c>
       <c r="C10">
-        <v>0.05709129498663401</v>
+        <v>0.1057371072035949</v>
       </c>
       <c r="D10">
-        <v>0.03864174833454115</v>
+        <v>0.1122105455219611</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4803547481183941</v>
+        <v>0.3987669849651923</v>
       </c>
       <c r="G10">
-        <v>0.3175609297515152</v>
+        <v>0.2593184742143677</v>
       </c>
       <c r="H10">
-        <v>0.4816804984546508</v>
+        <v>0.2074666863308252</v>
       </c>
       <c r="I10">
-        <v>0.373396952979359</v>
+        <v>0.1778240392472838</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2807183062101331</v>
+        <v>0.8784385659054124</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.287968666403913</v>
+        <v>4.632951176168646</v>
       </c>
       <c r="N10">
-        <v>1.137791935964764</v>
+        <v>0.4176722783300963</v>
       </c>
       <c r="O10">
-        <v>1.528850765033326</v>
+        <v>0.9349540832119629</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.290031366616347</v>
+        <v>0.9219803180738495</v>
       </c>
       <c r="C11">
-        <v>0.0588387721519581</v>
+        <v>0.1104937892156528</v>
       </c>
       <c r="D11">
-        <v>0.0410872039012844</v>
+        <v>0.11966774958141</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4828614739843289</v>
+        <v>0.4180026511026398</v>
       </c>
       <c r="G11">
-        <v>0.3185977572337748</v>
+        <v>0.2710201528060807</v>
       </c>
       <c r="H11">
-        <v>0.4802457362471202</v>
+        <v>0.2093760683811681</v>
       </c>
       <c r="I11">
-        <v>0.3717939108569084</v>
+        <v>0.1792110257720694</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2995363840598202</v>
+        <v>0.9349713038124889</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.372682297476132</v>
+        <v>5.065583743258955</v>
       </c>
       <c r="N11">
-        <v>1.12806945843649</v>
+        <v>0.3923925467740004</v>
       </c>
       <c r="O11">
-        <v>1.528180157315589</v>
+        <v>0.9639745888318743</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.297172711300874</v>
+        <v>0.9439718224218723</v>
       </c>
       <c r="C12">
-        <v>0.05949844594790932</v>
+        <v>0.1122823592976374</v>
       </c>
       <c r="D12">
-        <v>0.04201125543572459</v>
+        <v>0.1224881956707407</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4838537306720454</v>
+        <v>0.4254381953765431</v>
       </c>
       <c r="G12">
-        <v>0.3190234819181583</v>
+        <v>0.2755854053822375</v>
       </c>
       <c r="H12">
-        <v>0.4797315707602223</v>
+        <v>0.2101681755066025</v>
       </c>
       <c r="I12">
-        <v>0.3712172417056756</v>
+        <v>0.1798277571122355</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3066483033856571</v>
+        <v>0.9563209292178954</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.404876915242482</v>
+        <v>5.234617139786764</v>
       </c>
       <c r="N12">
-        <v>1.124452730294333</v>
+        <v>0.3829639328464101</v>
       </c>
       <c r="O12">
-        <v>1.528056364599919</v>
+        <v>0.9753921952130327</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2956351568346918</v>
+        <v>0.9392374917564439</v>
       </c>
       <c r="C13">
-        <v>0.05935646591478871</v>
+        <v>0.111897765469692</v>
       </c>
       <c r="D13">
-        <v>0.04181233377290994</v>
+        <v>0.1218809217798338</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.483638117632502</v>
+        <v>0.4238298322648433</v>
       </c>
       <c r="G13">
-        <v>0.3189303212899262</v>
+        <v>0.274595996088479</v>
       </c>
       <c r="H13">
-        <v>0.4798410096451562</v>
+        <v>0.2099944319444873</v>
       </c>
       <c r="I13">
-        <v>0.371340086581462</v>
+        <v>0.1796907361874958</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.305117259525332</v>
+        <v>0.9517256470394955</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.397937985645257</v>
+        <v>5.197959933237428</v>
       </c>
       <c r="N13">
-        <v>1.125228766839308</v>
+        <v>0.3849881017096188</v>
       </c>
       <c r="O13">
-        <v>1.528077235808865</v>
+        <v>0.9729134997745916</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2906190966547513</v>
+        <v>0.9237904330958315</v>
       </c>
       <c r="C14">
-        <v>0.05889308551269323</v>
+        <v>0.1106412052576786</v>
       </c>
       <c r="D14">
-        <v>0.04116326636791712</v>
+        <v>0.1198998606270436</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4829422455650416</v>
+        <v>0.4186112534199466</v>
       </c>
       <c r="G14">
-        <v>0.3186321180999983</v>
+        <v>0.2713929670116642</v>
       </c>
       <c r="H14">
-        <v>0.4802028515593122</v>
+        <v>0.2094398236253738</v>
       </c>
       <c r="I14">
-        <v>0.3717458591320799</v>
+        <v>0.1792598852933729</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3001217713595281</v>
+        <v>0.9367289704781854</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.375328615655434</v>
+        <v>5.079378336694276</v>
       </c>
       <c r="N14">
-        <v>1.127770605605974</v>
+        <v>0.3916139445024878</v>
       </c>
       <c r="O14">
-        <v>1.528167363936689</v>
+        <v>0.9649051028381592</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2875452721317231</v>
+        <v>0.9143231238965654</v>
       </c>
       <c r="C15">
-        <v>0.05860898178228524</v>
+        <v>0.1098697969198952</v>
       </c>
       <c r="D15">
-        <v>0.04076543310465297</v>
+        <v>0.1186859439762173</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4825216050551191</v>
+        <v>0.4154349041337611</v>
       </c>
       <c r="G15">
-        <v>0.3184537726529442</v>
+        <v>0.2694489162440732</v>
       </c>
       <c r="H15">
-        <v>0.4804282851442423</v>
+        <v>0.2091092472864347</v>
       </c>
       <c r="I15">
-        <v>0.371998362315928</v>
+        <v>0.1790081274610777</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2970600402807406</v>
+        <v>0.927535222799122</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.361494957307272</v>
+        <v>5.007460221395519</v>
       </c>
       <c r="N15">
-        <v>1.129336017802938</v>
+        <v>0.3956913228135792</v>
       </c>
       <c r="O15">
-        <v>1.52823952191487</v>
+        <v>0.9600567149845034</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2699102687499249</v>
+        <v>0.8599897074782916</v>
       </c>
       <c r="C16">
-        <v>0.05697680868217958</v>
+        <v>0.1054246077928553</v>
       </c>
       <c r="D16">
-        <v>0.03848165670878245</v>
+        <v>0.1117227394177434</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4801969477334396</v>
+        <v>0.3975302472069586</v>
       </c>
       <c r="G16">
-        <v>0.3174977990307042</v>
+        <v>0.2585717232449838</v>
       </c>
       <c r="H16">
-        <v>0.4817783440862584</v>
+        <v>0.207351310334758</v>
       </c>
       <c r="I16">
-        <v>0.3735059633776849</v>
+        <v>0.1777457819166877</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2794865615437061</v>
+        <v>0.8747363841040965</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.282448206668079</v>
+        <v>4.60533795510942</v>
       </c>
       <c r="N16">
-        <v>1.138436408913677</v>
+        <v>0.4193444182865211</v>
       </c>
       <c r="O16">
-        <v>1.528912799512995</v>
+        <v>0.9331152387181589</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2590742393745415</v>
+        <v>0.8265910089466786</v>
       </c>
       <c r="C17">
-        <v>0.0559719249505406</v>
+        <v>0.1026776146762671</v>
       </c>
       <c r="D17">
-        <v>0.03707715006945023</v>
+        <v>0.1074452960686756</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4788474760391424</v>
+        <v>0.3867999664605293</v>
       </c>
       <c r="G17">
-        <v>0.3169702267142753</v>
+        <v>0.2521226451948024</v>
       </c>
       <c r="H17">
-        <v>0.4826585115676494</v>
+        <v>0.206390877333213</v>
       </c>
       <c r="I17">
-        <v>0.374484882917276</v>
+        <v>0.1771262393159105</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2686813358698998</v>
+        <v>0.8422518772360661</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.234153813242301</v>
+        <v>4.366626694405866</v>
       </c>
       <c r="N17">
-        <v>1.144134824321421</v>
+        <v>0.4341089232807751</v>
       </c>
       <c r="O17">
-        <v>1.5295575685915</v>
+        <v>0.9173075628850711</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2528353839391002</v>
+        <v>0.8073579400588358</v>
       </c>
       <c r="C18">
-        <v>0.05539264009779288</v>
+        <v>0.1010909406353022</v>
       </c>
       <c r="D18">
-        <v>0.03626805258093668</v>
+        <v>0.1049829990890743</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4780994620358499</v>
+        <v>0.3807168712086622</v>
       </c>
       <c r="G18">
-        <v>0.3166884007145256</v>
+        <v>0.2484912760181288</v>
       </c>
       <c r="H18">
-        <v>0.4831838623835978</v>
+        <v>0.2058803886152063</v>
       </c>
       <c r="I18">
-        <v>0.3750677863638181</v>
+        <v>0.1768245015299215</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2624576478785059</v>
+        <v>0.8235354590012776</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.206446828938908</v>
+        <v>4.231915576012028</v>
       </c>
       <c r="N18">
-        <v>1.14745486644809</v>
+        <v>0.4426934451672317</v>
       </c>
       <c r="O18">
-        <v>1.530013560132346</v>
+        <v>0.9084679712517669</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2507219572191559</v>
+        <v>0.8008421285283873</v>
       </c>
       <c r="C19">
-        <v>0.05519628243067132</v>
+        <v>0.1005526315954484</v>
       </c>
       <c r="D19">
-        <v>0.03599389094453898</v>
+        <v>0.1041489662946304</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4778510354299499</v>
+        <v>0.3786720593471244</v>
       </c>
       <c r="G19">
-        <v>0.3165966904773754</v>
+        <v>0.2472747643759732</v>
       </c>
       <c r="H19">
-        <v>0.4833650188648306</v>
+        <v>0.2057146149995859</v>
       </c>
       <c r="I19">
-        <v>0.3752685565665423</v>
+        <v>0.1767315075927414</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2603489186491998</v>
+        <v>0.8171930746051572</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.19707765396052</v>
+        <v>4.186719924163853</v>
       </c>
       <c r="N19">
-        <v>1.148586266531737</v>
+        <v>0.4456157765369935</v>
       </c>
       <c r="O19">
-        <v>1.53018257114293</v>
+        <v>0.9055173234201561</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2602284049946491</v>
+        <v>0.8301487717826035</v>
       </c>
       <c r="C20">
-        <v>0.05607903177551066</v>
+        <v>0.1029707419392025</v>
       </c>
       <c r="D20">
-        <v>0.0372267932563517</v>
+        <v>0.1079008483845882</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4789882146008679</v>
+        <v>0.3879329464528496</v>
       </c>
       <c r="G20">
-        <v>0.3170241496649737</v>
+        <v>0.2528009985861175</v>
       </c>
       <c r="H20">
-        <v>0.4825628395098605</v>
+        <v>0.2064887461533118</v>
       </c>
       <c r="I20">
-        <v>0.374378620132525</v>
+        <v>0.1771864887501096</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2698324863079904</v>
+        <v>0.8457132893570787</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.239287470721706</v>
+        <v>4.391762749968464</v>
       </c>
       <c r="N20">
-        <v>1.143523822805975</v>
+        <v>0.4325276322558902</v>
       </c>
       <c r="O20">
-        <v>1.529480119874563</v>
+        <v>0.9189639147304689</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.292092715979237</v>
+        <v>0.9283287756652499</v>
       </c>
       <c r="C21">
-        <v>0.0590292479199519</v>
+        <v>0.1110106527076766</v>
       </c>
       <c r="D21">
-        <v>0.04135396763558674</v>
+        <v>0.1204818428831089</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4831454727975952</v>
+        <v>0.4201398421984948</v>
       </c>
       <c r="G21">
-        <v>0.3187188087429647</v>
+        <v>0.2723300175214618</v>
       </c>
       <c r="H21">
-        <v>0.4800957790072573</v>
+        <v>0.209600812555621</v>
       </c>
       <c r="I21">
-        <v>0.3716258494591393</v>
+        <v>0.1793838899952682</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.301589453951749</v>
+        <v>0.9411355122926466</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.381966348652554</v>
+        <v>5.114056827828804</v>
       </c>
       <c r="N21">
-        <v>1.127022242206309</v>
+        <v>0.3896638401443218</v>
       </c>
       <c r="O21">
-        <v>1.528137358222722</v>
+        <v>0.9672454112906763</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3128582753230376</v>
+        <v>0.9922515758697728</v>
       </c>
       <c r="C22">
-        <v>0.0609453606960102</v>
+        <v>0.1161897147181037</v>
       </c>
       <c r="D22">
-        <v>0.0440396928296849</v>
+        <v>0.1286839341740489</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4861131924985784</v>
+        <v>0.4420796965600005</v>
       </c>
       <c r="G22">
-        <v>0.3200193325426568</v>
+        <v>0.2858826990482868</v>
       </c>
       <c r="H22">
-        <v>0.478653293579157</v>
+        <v>0.2120397487407928</v>
       </c>
       <c r="I22">
-        <v>0.3700037783771393</v>
+        <v>0.1813575261329952</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3222621440703222</v>
+        <v>1.00315485650566</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.475891181505602</v>
+        <v>5.617231905310717</v>
       </c>
       <c r="N22">
-        <v>1.116616199574963</v>
+        <v>0.3624912676093794</v>
       </c>
       <c r="O22">
-        <v>1.528018446679596</v>
+        <v>1.001317628699013</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3017809478189974</v>
+        <v>0.9581593945289342</v>
       </c>
       <c r="C23">
-        <v>0.05992381614578335</v>
+        <v>0.1134333812104416</v>
       </c>
       <c r="D23">
-        <v>0.04260735260389481</v>
+        <v>0.1243083356390287</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.484506329777922</v>
+        <v>0.4302831613839118</v>
       </c>
       <c r="G23">
-        <v>0.319307540489099</v>
+        <v>0.2785721323601393</v>
       </c>
       <c r="H23">
-        <v>0.4794076415203889</v>
+        <v>0.2106993560131158</v>
       </c>
       <c r="I23">
-        <v>0.3708532998893972</v>
+        <v>0.1802522987824133</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3112364613189698</v>
+        <v>0.9700889286662004</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.425697592879885</v>
+        <v>5.345370181061526</v>
       </c>
       <c r="N23">
-        <v>1.122135422350219</v>
+        <v>0.3769161297304087</v>
       </c>
       <c r="O23">
-        <v>1.528012468994802</v>
+        <v>0.9828882087704756</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2597066349505894</v>
+        <v>0.8285404056141488</v>
       </c>
       <c r="C24">
-        <v>0.0560306136466977</v>
+        <v>0.1028382419663245</v>
       </c>
       <c r="D24">
-        <v>0.03715914463799663</v>
+        <v>0.1076949029360605</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4789245000576017</v>
+        <v>0.3874204597495421</v>
       </c>
       <c r="G24">
-        <v>0.3169997041911969</v>
+        <v>0.2524940783858725</v>
       </c>
       <c r="H24">
-        <v>0.4826060326333916</v>
+        <v>0.206444370184137</v>
       </c>
       <c r="I24">
-        <v>0.3744265989031028</v>
+        <v>0.1771590809380186</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2693120873449288</v>
+        <v>0.8441485109666047</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.236966363700688</v>
+        <v>4.380390948004589</v>
       </c>
       <c r="N24">
-        <v>1.143799919711407</v>
+        <v>0.4332422344921421</v>
       </c>
       <c r="O24">
-        <v>1.52951486873836</v>
+        <v>0.9182143070248259</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2140855643677071</v>
+        <v>0.6878512823584231</v>
       </c>
       <c r="C25">
-        <v>0.05178161236108281</v>
+        <v>0.09115877444219933</v>
       </c>
       <c r="D25">
-        <v>0.03123430781828063</v>
+        <v>0.08969707248807168</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4739804703693977</v>
+        <v>0.3445322661360279</v>
       </c>
       <c r="G25">
-        <v>0.3153366021099373</v>
+        <v>0.2273050423809977</v>
       </c>
       <c r="H25">
-        <v>0.4867864449848298</v>
+        <v>0.2034426514314873</v>
       </c>
       <c r="I25">
-        <v>0.3790399427761209</v>
+        <v>0.1758875142422625</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2237552618046124</v>
+        <v>0.70708295527659</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.036064238498369</v>
+        <v>3.436189364822596</v>
       </c>
       <c r="N25">
-        <v>1.168791839192783</v>
+        <v>0.497512250981941</v>
       </c>
       <c r="O25">
-        <v>1.53439006507476</v>
+        <v>0.8579915185728737</v>
       </c>
     </row>
   </sheetData>
